--- a/Data/PCR/Exp5_30a_146a_19_125a_CT.xlsx
+++ b/Data/PCR/Exp5_30a_146a_19_125a_CT.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Exp5_30a_146a_19_125a_CT" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -3081,11 +3081,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="211079248"/>
-        <c:axId val="211081488"/>
+        <c:axId val="209314960"/>
+        <c:axId val="212544192"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="211079248"/>
+        <c:axId val="209314960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3127,7 +3127,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="211081488"/>
+        <c:crossAx val="212544192"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3135,7 +3135,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="211081488"/>
+        <c:axId val="212544192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3186,7 +3186,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="211079248"/>
+        <c:crossAx val="209314960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10691,7 +10691,7 @@
   <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" activeCellId="2" sqref="B7:E7 B14:E14 B21:E21"/>
+      <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Data/PCR/Exp5_30a_146a_19_125a_CT.xlsx
+++ b/Data/PCR/Exp5_30a_146a_19_125a_CT.xlsx
@@ -3081,11 +3081,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="209314960"/>
-        <c:axId val="212544192"/>
+        <c:axId val="163663328"/>
+        <c:axId val="164398448"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="209314960"/>
+        <c:axId val="163663328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3127,7 +3127,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="212544192"/>
+        <c:crossAx val="164398448"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3135,7 +3135,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="212544192"/>
+        <c:axId val="164398448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3186,7 +3186,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="209314960"/>
+        <c:crossAx val="163663328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3814,16 +3814,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>157162</xdr:rowOff>
+      <xdr:rowOff>185737</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>352425</xdr:colOff>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>42862</xdr:rowOff>
+      <xdr:rowOff>71437</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -10688,15 +10688,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H29"/>
+  <dimension ref="A1:M29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J27" sqref="J27"/>
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>762</v>
       </c>
@@ -10710,7 +10710,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>759</v>
       </c>
@@ -10720,8 +10720,12 @@
       <c r="E2">
         <v>17.53</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="M2">
+        <f t="shared" ref="K2:M6" si="0">E2-E23</f>
+        <v>1.6000000000000014</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>759</v>
       </c>
@@ -10742,8 +10746,20 @@
         <f>-((D7-E7)-(D28-E28))</f>
         <v>-3.2225000000000001</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J3">
+        <f t="shared" ref="J3:J6" si="1">B3-B24</f>
+        <v>-4.6499999999999986</v>
+      </c>
+      <c r="L3">
+        <f t="shared" si="0"/>
+        <v>-7.3699999999999974</v>
+      </c>
+      <c r="M3">
+        <f t="shared" si="0"/>
+        <v>-8.41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>759</v>
       </c>
@@ -10764,8 +10780,20 @@
         <f>-((D8-E8)-(D29-E29))</f>
         <v>-5.930474017305964</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J4">
+        <f t="shared" si="1"/>
+        <v>-4.0100000000000016</v>
+      </c>
+      <c r="K4">
+        <f t="shared" si="0"/>
+        <v>1.4499999999999993</v>
+      </c>
+      <c r="L4">
+        <f t="shared" si="0"/>
+        <v>-12.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>759</v>
       </c>
@@ -10778,8 +10806,16 @@
       <c r="E5">
         <v>15.09</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K5">
+        <f t="shared" si="0"/>
+        <v>-4.4499999999999993</v>
+      </c>
+      <c r="M5">
+        <f t="shared" si="0"/>
+        <v>-5.0500000000000007</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>759</v>
       </c>
@@ -10792,8 +10828,16 @@
       <c r="D6">
         <v>27.94</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J6">
+        <f t="shared" si="1"/>
+        <v>19.350000000000001</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="0"/>
+        <v>-2.2800000000000011</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>766</v>
       </c>
@@ -10802,19 +10846,19 @@
         <v>29.427500000000002</v>
       </c>
       <c r="C7" s="2">
-        <f t="shared" ref="C7:E7" si="0">AVERAGE(C2:C6)</f>
+        <f t="shared" ref="C7:E7" si="2">AVERAGE(C2:C6)</f>
         <v>17.966666666666669</v>
       </c>
       <c r="D7" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>23.625</v>
       </c>
       <c r="E7" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>16.72</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>767</v>
       </c>
@@ -10823,19 +10867,19 @@
         <v>4.1477531568308095</v>
       </c>
       <c r="C8" s="1">
-        <f t="shared" ref="C8:E8" si="1">STDEV(C2:C6)/2</f>
+        <f t="shared" ref="C8:E8" si="3">STDEV(C2:C6)/2</f>
         <v>1.1155417219150994</v>
       </c>
       <c r="D8" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5.2778633618791879</v>
       </c>
       <c r="E8" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.70581513160316989</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>760</v>
       </c>
@@ -10848,16 +10892,28 @@
       <c r="E9">
         <v>30.78</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J9">
+        <f>B9-B23</f>
+        <v>31.54</v>
+      </c>
+      <c r="M9">
+        <f t="shared" ref="K9:M13" si="4">E9-E23</f>
+        <v>14.850000000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>760</v>
       </c>
       <c r="D10">
         <v>14.41</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L10">
+        <f t="shared" si="4"/>
+        <v>-12.149999999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>760</v>
       </c>
@@ -10870,8 +10926,20 @@
       <c r="D11">
         <v>21.82</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J11">
+        <f t="shared" ref="J10:J13" si="5">B11-B25</f>
+        <v>-3.8100000000000023</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="4"/>
+        <v>-3.9999999999999147E-2</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="4"/>
+        <v>-2.1999999999999993</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>760</v>
       </c>
@@ -10892,8 +10960,16 @@
         <f>-((D14-E14)-(D28-E28))</f>
         <v>6.7031666666666645</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K12">
+        <f t="shared" si="4"/>
+        <v>-4.32</v>
+      </c>
+      <c r="M12">
+        <f t="shared" si="4"/>
+        <v>-3.5100000000000016</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>760</v>
       </c>
@@ -10917,8 +10993,20 @@
         <f>-((D15-E15)-(D29-E29))</f>
         <v>-1.9560243032132458</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J13">
+        <f t="shared" si="5"/>
+        <v>6.57</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="4"/>
+        <v>-0.89000000000000057</v>
+      </c>
+      <c r="M13">
+        <f t="shared" si="4"/>
+        <v>0.41000000000000014</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>768</v>
       </c>
@@ -10927,11 +11015,11 @@
         <v>24.86</v>
       </c>
       <c r="C14" s="2">
-        <f t="shared" ref="C14:D14" si="2">AVERAGE(C9:C13)</f>
+        <f t="shared" ref="C14:D14" si="6">AVERAGE(C9:C13)</f>
         <v>17.97666666666667</v>
       </c>
       <c r="D14" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>21.056000000000001</v>
       </c>
       <c r="E14" s="2">
@@ -10939,7 +11027,7 @@
         <v>24.076666666666664</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>767</v>
       </c>
@@ -10948,19 +11036,19 @@
         <v>2.9807884862901668</v>
       </c>
       <c r="C15" s="1">
-        <f t="shared" ref="C15:E15" si="3">STDEV(C9:C13)/2</f>
+        <f t="shared" ref="C15:E15" si="7">STDEV(C9:C13)/2</f>
         <v>1.8068296359461491</v>
       </c>
       <c r="D15" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>4.1497117369764389</v>
       </c>
       <c r="E15" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>3.5521132207931387</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>19</v>
       </c>
@@ -10970,8 +11058,12 @@
       <c r="E16">
         <v>19.8</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L16">
+        <f t="shared" ref="J16:L20" si="8">E16-E23</f>
+        <v>3.870000000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>19</v>
       </c>
@@ -10984,8 +11076,20 @@
       <c r="E17">
         <v>27.6</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I17">
+        <f t="shared" ref="I17:I20" si="9">B17-B24</f>
+        <v>-4.5500000000000007</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="8"/>
+        <v>0.37000000000000099</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="8"/>
+        <v>1.6500000000000021</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>19</v>
       </c>
@@ -10995,8 +11099,16 @@
       <c r="C18">
         <v>18.760000000000002</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I18">
+        <f t="shared" si="9"/>
+        <v>-3.7300000000000004</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="8"/>
+        <v>3.990000000000002</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>19</v>
       </c>
@@ -11020,8 +11132,16 @@
         <f>-((D21-E21)-(D28-E28))</f>
         <v>4.5125000000000028</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J19">
+        <f t="shared" si="8"/>
+        <v>1.0600000000000023</v>
+      </c>
+      <c r="L19">
+        <f t="shared" si="8"/>
+        <v>1.2300000000000004</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -11039,8 +11159,16 @@
         <f>-((D22-E22)-(D29-E29))</f>
         <v>-3.2048813705308374</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I20">
+        <f t="shared" si="9"/>
+        <v>20.399999999999999</v>
+      </c>
+      <c r="L20">
+        <f t="shared" si="8"/>
+        <v>-2.16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>766</v>
       </c>
@@ -11049,19 +11177,19 @@
         <v>28.869999999999997</v>
       </c>
       <c r="C21" s="2">
-        <f t="shared" ref="C21:E21" si="4">AVERAGE(C16:C20)</f>
+        <f t="shared" ref="C21:E21" si="10">AVERAGE(C16:C20)</f>
         <v>20.734999999999999</v>
       </c>
       <c r="D21" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>21.925000000000001</v>
       </c>
       <c r="E21" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>22.755000000000003</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>767</v>
       </c>
@@ -11070,19 +11198,19 @@
         <v>3.179878142319303</v>
       </c>
       <c r="C22" s="1">
-        <f t="shared" ref="C22:E22" si="5">STDEV(C16:C20)/2</f>
+        <f t="shared" ref="C22:E22" si="11">STDEV(C16:C20)/2</f>
         <v>1.3965358928434313</v>
       </c>
       <c r="D22" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>3.5390694398386668</v>
       </c>
       <c r="E22" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>1.6926138563377748</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>761</v>
       </c>
@@ -11090,7 +11218,7 @@
         <v>15.93</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>761</v>
       </c>
@@ -11104,7 +11232,7 @@
         <v>25.95</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>761</v>
       </c>
@@ -11118,7 +11246,7 @@
         <v>24.02</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>761</v>
       </c>
@@ -11129,7 +11257,7 @@
         <v>20.14</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>761</v>
       </c>
@@ -11143,7 +11271,7 @@
         <v>24.41</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>766</v>
       </c>
@@ -11152,19 +11280,19 @@
         <v>23.349999999999998</v>
       </c>
       <c r="C28" s="2">
-        <f t="shared" ref="C28:E28" si="6">AVERAGE(C23:C27)</f>
+        <f t="shared" ref="C28:E28" si="12">AVERAGE(C23:C27)</f>
         <v>19.72666666666667</v>
       </c>
       <c r="D28" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>25.29</v>
       </c>
       <c r="E28" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>21.607499999999998</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>767</v>
       </c>
@@ -11173,15 +11301,15 @@
         <v>3.3531626861815171</v>
       </c>
       <c r="C29" s="1">
-        <f t="shared" ref="C29:E29" si="7">STDEV(C23:C27)/2</f>
+        <f t="shared" ref="C29:E29" si="13">STDEV(C23:C27)/2</f>
         <v>2.1641645809256969</v>
       </c>
       <c r="D29" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>0.89802561210691501</v>
       </c>
       <c r="E29" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>2.2564513991368607</v>
       </c>
     </row>
